--- a/matchRoundEuro2016.xlsx
+++ b/matchRoundEuro2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7B8B58-28D0-4A5A-BBD7-BC42CBD2E8CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A32949-051D-4F95-BE54-B6F16B3FFC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8698" xr2:uid="{08337BA2-47F5-4B03-A043-CE74ED2B7BE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1B7A5-33BB-485A-A0AE-5D23F6E0D72F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -462,6 +462,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
